--- a/Reports.xlsx
+++ b/Reports.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
   <si>
     <t>mstest</t>
   </si>
@@ -308,19 +308,71 @@
   </si>
   <si>
     <t>asp.net ajax adv topics</t>
+  </si>
+  <si>
+    <t>Introduction to IOS 1</t>
+  </si>
+  <si>
+    <t>Introduction to Objective-C</t>
+  </si>
+  <si>
+    <t>*</t>
+  </si>
+  <si>
+    <t>ViewController</t>
+  </si>
+  <si>
+    <t>MVC in controller</t>
+  </si>
+  <si>
+    <t>outlets and demo</t>
+  </si>
+  <si>
+    <t>actions and demo</t>
+  </si>
+  <si>
+    <t>Dynamically Adding Views</t>
+  </si>
+  <si>
+    <t>controls</t>
+  </si>
+  <si>
+    <t>intro to web api</t>
+  </si>
+  <si>
+    <t>demo-basics</t>
+  </si>
+  <si>
+    <t>demo=getting deeper</t>
+  </si>
+  <si>
+    <t>odata Query</t>
+  </si>
+  <si>
+    <t>webapi hosting</t>
+  </si>
+  <si>
+    <t>using convention</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -355,10 +407,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -631,7 +684,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -639,10 +692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -837,27 +890,27 @@
         <v>86</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="1:3">
       <c r="B33" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="1:3">
       <c r="B34" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:3">
       <c r="B35" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="1:3">
       <c r="B36" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="37" spans="2:3" s="1" customFormat="1">
+    <row r="37" spans="1:3" s="1" customFormat="1">
       <c r="B37" s="1" t="s">
         <v>91</v>
       </c>
@@ -865,7 +918,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="38" spans="2:3" s="1" customFormat="1">
+    <row r="38" spans="1:3" s="1" customFormat="1">
       <c r="B38" s="1" t="s">
         <v>92</v>
       </c>
@@ -873,7 +926,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="39" spans="2:3" s="1" customFormat="1">
+    <row r="39" spans="1:3" s="1" customFormat="1">
       <c r="B39" s="1" t="s">
         <v>93</v>
       </c>
@@ -881,12 +934,88 @@
         <v>54</v>
       </c>
     </row>
-    <row r="40" spans="2:3" s="1" customFormat="1">
+    <row r="40" spans="1:3" s="1" customFormat="1">
       <c r="B40" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="B46" t="s">
+        <v>96</v>
+      </c>
+      <c r="C46" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="B47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="C48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="C49" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="C50" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="C51" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+      <c r="C52" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="C55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="C56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="C57" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="C58" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="C59" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Reports.xlsx
+++ b/Reports.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
   <si>
     <t>mstest</t>
   </si>
@@ -353,13 +353,31 @@
   </si>
   <si>
     <t>using convention</t>
+  </si>
+  <si>
+    <t>Team Foundation Build 2010 Introduction</t>
+  </si>
+  <si>
+    <t>the build Environment</t>
+  </si>
+  <si>
+    <t>Demo: Installing the Build Service</t>
+  </si>
+  <si>
+    <t>Up and Running Nosql Satabases</t>
+  </si>
+  <si>
+    <t>couchdb Applicatrion</t>
+  </si>
+  <si>
+    <t>Understanding NoSQL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,9 +386,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <color rgb="FF333333"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <u/>
       <sz val="10"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF555555"/>
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
     </font>
@@ -407,11 +443,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -684,7 +725,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -692,18 +733,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:XFD59"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="10.5"/>
   <cols>
-    <col min="1" max="1" width="47" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47" style="3" customWidth="1"/>
+    <col min="2" max="2" width="33.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="5.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
@@ -720,10 +762,10 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" t="s">
+      <c r="A3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>82</v>
       </c>
     </row>
@@ -736,28 +778,28 @@
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="3" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="B8" t="s">
+      <c r="B8" s="3" t="s">
         <v>60</v>
       </c>
     </row>
@@ -770,15 +812,15 @@
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" t="s">
+      <c r="A12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>64</v>
       </c>
     </row>
@@ -791,7 +833,7 @@
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>66</v>
       </c>
     </row>
@@ -812,17 +854,17 @@
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" t="s">
+      <c r="B19" s="3" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="C20" t="s">
+      <c r="C20" s="3" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" t="s">
+      <c r="B21" s="3" t="s">
         <v>73</v>
       </c>
     </row>
@@ -843,70 +885,70 @@
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" t="s">
+      <c r="B24" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="C25" t="s">
+      <c r="C25" s="3" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="C26" t="s">
+      <c r="C26" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="27" spans="2:4">
-      <c r="C27" t="s">
+      <c r="C27" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="3" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="28" spans="2:4">
-      <c r="C28" t="s">
+      <c r="C28" s="3" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="29" spans="2:4">
-      <c r="B29" t="s">
+      <c r="B29" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="30" spans="2:4">
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="31" spans="2:4">
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="2:4">
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="B33" t="s">
+      <c r="B33" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="B35" t="s">
+      <c r="B35" s="3" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="B36" t="s">
+      <c r="B36" s="3" t="s">
         <v>90</v>
       </c>
     </row>
@@ -943,119 +985,157 @@
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" t="s">
+      <c r="A45" s="3" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="C46" t="s">
+      <c r="C46" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="B47" t="s">
+      <c r="B47" s="3" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="C48" t="s">
+      <c r="C48" s="3" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="C49" t="s">
+      <c r="C49" s="3" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="C50" t="s">
+      <c r="C50" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="4" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C52" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" t="s">
+      <c r="A54" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="C55" t="s">
+      <c r="C55" s="3" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="C56" t="s">
+      <c r="C56" s="3" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="C57" t="s">
+      <c r="C57" s="3" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="C58" t="s">
+      <c r="C58" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="C59" t="s">
+      <c r="C59" s="3" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="12.75">
+      <c r="B62" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C62" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" s="5" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="B2" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="B3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="B4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="B5" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="B10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="C11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Reports.xlsx
+++ b/Reports.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
   <si>
     <t>mstest</t>
   </si>
@@ -371,13 +371,19 @@
   </si>
   <si>
     <t>Understanding NoSQL</t>
+  </si>
+  <si>
+    <t>sqlite / nosql</t>
+  </si>
+  <si>
+    <t>What is NoSQL?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -406,6 +412,13 @@
     <font>
       <u/>
       <sz val="10"/>
+      <color rgb="FF555555"/>
+      <name val="Lucida Sans Unicode"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF555555"/>
       <name val="Lucida Sans Unicode"/>
       <family val="2"/>
@@ -443,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -453,6 +466,7 @@
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -725,7 +739,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -735,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.5"/>
@@ -1073,9 +1087,15 @@
         <v>112</v>
       </c>
     </row>
-    <row r="71" spans="1:1">
+    <row r="71" spans="1:3" ht="14.25">
       <c r="A71" s="5" t="s">
         <v>115</v>
+      </c>
+      <c r="B71" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1228,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1302,6 +1322,11 @@
     <row r="14" spans="1:1">
       <c r="A14" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/Reports.xlsx
+++ b/Reports.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Pluralsight" sheetId="1" r:id="rId1"/>
@@ -55,18 +55,12 @@
     <t>VS2012 _ dataItem</t>
   </si>
   <si>
-    <t>mango</t>
-  </si>
-  <si>
     <t>TFS/git   and build no</t>
   </si>
   <si>
     <t>Titanium/PhoneGap</t>
   </si>
   <si>
-    <t>HTML5 canvas / foundation /GoJs</t>
-  </si>
-  <si>
     <t>Nodejs/Mongo/Couch</t>
   </si>
   <si>
@@ -377,6 +371,12 @@
   </si>
   <si>
     <t>What is NoSQL?</t>
+  </si>
+  <si>
+    <t>HTML5 canvas / foundation /GoJs / processing</t>
+  </si>
+  <si>
+    <t>GameXNA/Unity</t>
   </si>
 </sst>
 </file>
@@ -739,7 +739,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -749,7 +749,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A49" workbookViewId="0">
       <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
@@ -764,338 +764,338 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:3" s="2" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" s="1" customFormat="1">
       <c r="B4" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="B7" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="B8" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="1" customFormat="1">
       <c r="B9" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="1" customFormat="1">
       <c r="A15" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="1" customFormat="1">
       <c r="B17" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="1" customFormat="1">
       <c r="B18" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="2:4">
       <c r="B19" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="2:4">
       <c r="C20" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:4">
       <c r="B21" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="1" customFormat="1">
       <c r="B22" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="1" customFormat="1">
       <c r="B23" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="2:4">
       <c r="B24" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="25" spans="2:4">
       <c r="C25" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="C26" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="27" spans="2:4">
       <c r="C27" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="2:4">
       <c r="C28" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="30" spans="2:4">
       <c r="B30" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="31" spans="2:4">
       <c r="B31" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="32" spans="2:4">
       <c r="B32" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="B33" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="B34" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="B35" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="B36" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:3" s="1" customFormat="1">
       <c r="B37" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="1" customFormat="1">
       <c r="B38" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="1" customFormat="1">
       <c r="B39" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3" s="1" customFormat="1">
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="B46" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="B47" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="C48" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="C49" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="C50" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="C51" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="B52" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="C55" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="C56" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="C57" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="C58" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="C59" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="12.75">
       <c r="B62" s="3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="14.25">
       <c r="A71" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B71" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>117</v>
-      </c>
       <c r="C71" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1120,42 +1120,42 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="B2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="B4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="B5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="B10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="C11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -1165,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1188,7 +1188,7 @@
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:1">
@@ -1208,7 +1208,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:1">
@@ -1234,11 +1234,6 @@
     <row r="12" spans="1:1">
       <c r="A12" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1248,10 +1243,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A17"/>
+  <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1261,72 +1256,77 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -1351,107 +1351,107 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="B2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="B3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="B4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="B6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="B8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="B9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="B10" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="B13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="B14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="B15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="B16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="C17" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="2:3">
       <c r="C20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="2:3">
       <c r="B22" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Reports.xlsx
+++ b/Reports.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Document\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9885"/>
   </bookViews>
   <sheets>
     <sheet name="Pluralsight" sheetId="1" r:id="rId1"/>
@@ -14,8 +19,8 @@
     <sheet name="Interview" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="120">
   <si>
     <t>mstest</t>
   </si>
@@ -377,13 +382,19 @@
   </si>
   <si>
     <t>GameXNA/Unity</t>
+  </si>
+  <si>
+    <t>SourceControl</t>
+  </si>
+  <si>
+    <t>TFS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,21 +750,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D71"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D78"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="10.5"/>
+  <sheetFormatPr defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="47" style="3" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" style="3" customWidth="1"/>
@@ -762,7 +773,7 @@
     <col min="5" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1">
+    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -770,12 +781,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:3" s="2" customFormat="1">
+    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>53</v>
       </c>
@@ -783,7 +794,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:3" s="1" customFormat="1">
+    <row r="4" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1" t="s">
         <v>54</v>
       </c>
@@ -791,7 +802,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="3" t="s">
         <v>55</v>
       </c>
@@ -799,7 +810,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
@@ -807,17 +818,17 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B7" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B8" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="1" customFormat="1">
+    <row r="9" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>59</v>
       </c>
@@ -825,7 +836,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="3" t="s">
         <v>60</v>
       </c>
@@ -833,12 +844,12 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B13" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="1" customFormat="1">
+    <row r="15" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -846,12 +857,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A16" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="1" customFormat="1">
+    <row r="17" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>65</v>
       </c>
@@ -859,7 +870,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="1" customFormat="1">
+    <row r="18" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>66</v>
       </c>
@@ -867,22 +878,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:4">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="20" spans="2:4">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C20" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="21" spans="2:4">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="1" customFormat="1">
+    <row r="22" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>72</v>
       </c>
@@ -890,7 +901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="1" customFormat="1">
+    <row r="23" spans="2:4" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B23" s="1" t="s">
         <v>73</v>
       </c>
@@ -898,22 +909,22 @@
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:4">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="25" spans="2:4">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C25" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="2:4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C26" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="27" spans="2:4">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C27" s="3" t="s">
         <v>77</v>
       </c>
@@ -921,52 +932,52 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="2:4">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="C28" s="3" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="2:4">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B29" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="30" spans="2:4">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="31" spans="2:4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B31" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="32" spans="2:4">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B33" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B34" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B35" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B36" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:3" s="1" customFormat="1">
+    <row r="37" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>89</v>
       </c>
@@ -974,7 +985,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="38" spans="1:3" s="1" customFormat="1">
+    <row r="38" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>90</v>
       </c>
@@ -982,7 +993,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="1:3" s="1" customFormat="1">
+    <row r="39" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B39" s="1" t="s">
         <v>91</v>
       </c>
@@ -990,7 +1001,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="40" spans="1:3" s="1" customFormat="1">
+    <row r="40" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B40" s="1" t="s">
         <v>92</v>
       </c>
@@ -998,12 +1009,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A45" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B46" s="3" t="s">
         <v>94</v>
       </c>
@@ -1011,32 +1022,32 @@
         <v>95</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B47" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C48" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C49" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C50" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C51" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B52" s="3" t="s">
         <v>101</v>
       </c>
@@ -1044,42 +1055,42 @@
         <v>95</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A54" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C55" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C56" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C57" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C58" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.15">
       <c r="C59" s="3" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="12.75">
+    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>109</v>
       </c>
@@ -1087,7 +1098,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="14.25">
+    <row r="71" spans="1:3" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
         <v>113</v>
       </c>
@@ -1096,6 +1107,14 @@
       </c>
       <c r="C71" s="3" t="s">
         <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A78" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -1105,55 +1124,55 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
         <v>24</v>
       </c>
@@ -1164,74 +1183,74 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1242,89 +1261,89 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>117</v>
       </c>
@@ -1335,121 +1354,121 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="40.140625" customWidth="1"/>
     <col min="3" max="3" width="48.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C23" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C24" t="s">
         <v>49</v>
       </c>
